--- a/_lecture-notes/selected_lectures.xlsx
+++ b/_lecture-notes/selected_lectures.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patolojiai\Documents\GitHub\patolojiatlasi-github-io\_lecture-notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/_lecture-notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F8EABB-1B3E-43BD-A9D4-F92AA6EBD269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DA2E22-C5EC-F94E-B0D8-CF05015FB874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20025" yWindow="7785" windowWidth="28770" windowHeight="17370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="lectures" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -374,29 +374,29 @@
       <selection activeCell="A175" sqref="A6:XFD175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
